--- a/biology/Botanique/Mademoiselle_Jeanne_Guillaumez/Mademoiselle_Jeanne_Guillaumez.xlsx
+++ b/biology/Botanique/Mademoiselle_Jeanne_Guillaumez/Mademoiselle_Jeanne_Guillaumez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Jeanne Guillaumez' est un cultivar de rosier obtenu en 1889 par le rosiériste lyonnais Joseph Bonnaire[1],[2].
+'Mademoiselle Jeanne Guillaumez' est un cultivar de rosier obtenu en 1889 par le rosiériste lyonnais Joseph Bonnaire,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé à l'aspect romantique présente de grandes fleurs doubles (17-25 pétales) rose saumon aux nuances cuivrées[3]. La floraison abondante au printemps se poursuit tout au long de la saison de façon plus réduite.
-Son buisson a un port érigé. Sa zone de rusticité s'étend de 6b à 9b[3] ; il supporte donc bien les hivers rigoureux à -15°.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé à l'aspect romantique présente de grandes fleurs doubles (17-25 pétales) rose saumon aux nuances cuivrées. La floraison abondante au printemps se poursuit tout au long de la saison de façon plus réduite.
+Son buisson a un port érigé. Sa zone de rusticité s'étend de 6b à 9b ; il supporte donc bien les hivers rigoureux à -15°.
 Ce rosier est encore commercialisé dans quelques catalogues étrangers. Il est apprécié pour sa couleur tendre et son parfum subtil.
 </t>
         </is>
